--- a/PhoenixCI/Excel_Template/30399.xlsx
+++ b/PhoenixCI/Excel_Template/30399.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13095E6-8F19-4F8B-9173-2A7E1561F03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61202017-652C-4176-A004-BA8E2A8481A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="30399" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -837,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,13 +850,13 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -870,7 +869,7 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,6 +907,9 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -962,10 +964,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,7 +1001,7 @@
     <xf numFmtId="180" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1021,12 +1023,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,7 +1176,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49FB-4F6A-B839-CB41AB0004EB}"/>
+              <c16:uniqueId val="{00000000-FAC8-4B4D-8E6A-11B41C40AF91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1221,7 +1226,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-49FB-4F6A-B839-CB41AB0004EB}"/>
+              <c16:uniqueId val="{00000001-FAC8-4B4D-8E6A-11B41C40AF91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1234,7 +1239,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="701813104"/>
+        <c:axId val="371743224"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1289,7 +1294,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-49FB-4F6A-B839-CB41AB0004EB}"/>
+              <c16:uniqueId val="{00000002-FAC8-4B4D-8E6A-11B41C40AF91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1307,7 +1312,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="701813104"/>
+        <c:axId val="371743224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1404,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701813104"/>
+        <c:crossAx val="371743224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -1632,7 +1637,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-22DA-4776-9923-FC99A6A762C1}"/>
+                <c16:uniqueId val="{00000000-6167-42FD-914D-A6869060376E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1652,7 +1657,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-22DA-4776-9923-FC99A6A762C1}"/>
+                <c16:uniqueId val="{00000001-6167-42FD-914D-A6869060376E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1672,7 +1677,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-22DA-4776-9923-FC99A6A762C1}"/>
+                <c16:uniqueId val="{00000002-6167-42FD-914D-A6869060376E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1692,7 +1697,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-22DA-4776-9923-FC99A6A762C1}"/>
+                <c16:uniqueId val="{00000003-6167-42FD-914D-A6869060376E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1712,7 +1717,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-22DA-4776-9923-FC99A6A762C1}"/>
+                <c16:uniqueId val="{00000004-6167-42FD-914D-A6869060376E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1732,7 +1737,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-22DA-4776-9923-FC99A6A762C1}"/>
+                <c16:uniqueId val="{00000005-6167-42FD-914D-A6869060376E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1741,7 +1746,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-22DA-4776-9923-FC99A6A762C1}"/>
+                <c16:uniqueId val="{00000006-6167-42FD-914D-A6869060376E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1788,7 +1793,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-22DA-4776-9923-FC99A6A762C1}"/>
+                  <c16:uniqueId val="{00000000-6167-42FD-914D-A6869060376E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1834,7 +1839,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-22DA-4776-9923-FC99A6A762C1}"/>
+                  <c16:uniqueId val="{00000001-6167-42FD-914D-A6869060376E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1880,7 +1885,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-22DA-4776-9923-FC99A6A762C1}"/>
+                  <c16:uniqueId val="{00000002-6167-42FD-914D-A6869060376E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1926,7 +1931,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-22DA-4776-9923-FC99A6A762C1}"/>
+                  <c16:uniqueId val="{00000003-6167-42FD-914D-A6869060376E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1972,7 +1977,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-22DA-4776-9923-FC99A6A762C1}"/>
+                  <c16:uniqueId val="{00000004-6167-42FD-914D-A6869060376E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2018,7 +2023,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-22DA-4776-9923-FC99A6A762C1}"/>
+                  <c16:uniqueId val="{00000005-6167-42FD-914D-A6869060376E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2121,7 +2126,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-22DA-4776-9923-FC99A6A762C1}"/>
+              <c16:uniqueId val="{00000007-6167-42FD-914D-A6869060376E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2312,7 +2317,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-58E3-419F-A37A-23E569451D3B}"/>
+                <c16:uniqueId val="{00000000-31FD-41F0-8EBD-822E9F002C0A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2332,7 +2337,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-58E3-419F-A37A-23E569451D3B}"/>
+                <c16:uniqueId val="{00000001-31FD-41F0-8EBD-822E9F002C0A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2352,7 +2357,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-58E3-419F-A37A-23E569451D3B}"/>
+                <c16:uniqueId val="{00000002-31FD-41F0-8EBD-822E9F002C0A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2372,7 +2377,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-58E3-419F-A37A-23E569451D3B}"/>
+                <c16:uniqueId val="{00000003-31FD-41F0-8EBD-822E9F002C0A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2392,7 +2397,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-58E3-419F-A37A-23E569451D3B}"/>
+                <c16:uniqueId val="{00000004-31FD-41F0-8EBD-822E9F002C0A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2412,7 +2417,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-58E3-419F-A37A-23E569451D3B}"/>
+                <c16:uniqueId val="{00000005-31FD-41F0-8EBD-822E9F002C0A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2421,7 +2426,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-58E3-419F-A37A-23E569451D3B}"/>
+                <c16:uniqueId val="{00000006-31FD-41F0-8EBD-822E9F002C0A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2468,7 +2473,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-58E3-419F-A37A-23E569451D3B}"/>
+                  <c16:uniqueId val="{00000000-31FD-41F0-8EBD-822E9F002C0A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2514,7 +2519,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-58E3-419F-A37A-23E569451D3B}"/>
+                  <c16:uniqueId val="{00000001-31FD-41F0-8EBD-822E9F002C0A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2560,7 +2565,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-58E3-419F-A37A-23E569451D3B}"/>
+                  <c16:uniqueId val="{00000002-31FD-41F0-8EBD-822E9F002C0A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2606,7 +2611,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-58E3-419F-A37A-23E569451D3B}"/>
+                  <c16:uniqueId val="{00000003-31FD-41F0-8EBD-822E9F002C0A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2652,7 +2657,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-58E3-419F-A37A-23E569451D3B}"/>
+                  <c16:uniqueId val="{00000004-31FD-41F0-8EBD-822E9F002C0A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2698,7 +2703,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-58E3-419F-A37A-23E569451D3B}"/>
+                  <c16:uniqueId val="{00000005-31FD-41F0-8EBD-822E9F002C0A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2801,7 +2806,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-58E3-419F-A37A-23E569451D3B}"/>
+              <c16:uniqueId val="{00000007-31FD-41F0-8EBD-822E9F002C0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2928,7 +2933,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59B46CF-7F3F-468B-8015-1789E78E70DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674DD182-9B1C-4432-821B-F7E820F0CF3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2976,7 @@
         <xdr:cNvPr id="1034" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790B3EA4-5F3D-44A1-955F-A627A130B191}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20709BA-8204-4525-85EE-A9D7627A3FAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3019,7 @@
         <xdr:cNvPr id="2058" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AFCB19-6813-4EA2-82DF-1BC171F0E7E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E967208-2E3B-4289-8371-E19E71AC2ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3393,25 +3398,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="53" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="53" customWidth="1"/>
-    <col min="7" max="7" width="9" style="61" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="53"/>
+    <col min="1" max="1" width="9" style="54" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="54" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="54" customWidth="1"/>
+    <col min="7" max="7" width="9" style="62" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -3426,16 +3431,16 @@
       <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="64" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3444,254 +3449,254 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C30" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58">
+      <c r="D4" s="40"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59">
         <f>F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="60">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
         <f>B5-B4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58">
+      <c r="D5" s="40"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59">
         <f t="shared" ref="G5:G35" si="1">F5-F4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="60">
         <f t="shared" ref="H5:H35" si="2">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58">
+      <c r="D6" s="40"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58">
+      <c r="D7" s="40"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58">
+      <c r="D8" s="40"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58">
+      <c r="D9" s="40"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58">
+      <c r="D10" s="40"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58">
+      <c r="D11" s="40"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58">
+      <c r="D12" s="40"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58">
+      <c r="D13" s="40"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58">
+      <c r="D14" s="40"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58">
+      <c r="D15" s="40"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58">
+      <c r="D16" s="41"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3703,14 +3708,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58">
+      <c r="D17" s="41"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3722,14 +3727,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58">
+      <c r="D18" s="41"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3741,14 +3746,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58">
+      <c r="D19" s="41"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3760,14 +3765,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58">
+      <c r="D20" s="41"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3779,14 +3784,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58">
+      <c r="D21" s="41"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3798,14 +3803,14 @@
         <f>B22-B21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58">
+      <c r="D22" s="41"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3817,14 +3822,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58">
+      <c r="D23" s="41"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3836,14 +3841,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58">
+      <c r="D24" s="41"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3855,14 +3860,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58">
+      <c r="D25" s="41"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3874,14 +3879,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58">
+      <c r="D26" s="41"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3893,14 +3898,14 @@
         <f>B27-B26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58">
+      <c r="D27" s="41"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3912,14 +3917,14 @@
         <f>B28-B27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58">
+      <c r="D28" s="41"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3931,14 +3936,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58">
+      <c r="D29" s="41"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3950,14 +3955,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58">
+      <c r="D30" s="41"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3969,14 +3974,14 @@
         <f>B31-B30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58">
+      <c r="D31" s="41"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3988,14 +3993,14 @@
         <f>B32-B31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58">
+      <c r="D32" s="41"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4007,14 +4012,14 @@
         <f>B33-B32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58">
+      <c r="D33" s="41"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4026,14 +4031,14 @@
         <f>B34-B33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58">
+      <c r="D34" s="41"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4045,14 +4050,14 @@
         <f>B35-B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="58">
+      <c r="D35" s="42"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4064,7 +4069,7 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="E37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4143,86 +4148,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="72" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="72" t="s">
+      <c r="O2" s="75"/>
+      <c r="P2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="75"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="77" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="80"/>
+      <c r="J3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="84" t="s">
+      <c r="K3" s="80"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="76"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="78"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="71"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
@@ -4273,7 +4278,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -4288,11 +4293,11 @@
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="28">
+      <c r="P5" s="29">
         <f>SUM(B5,D5,F5,H5,J5,L5,N5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="30">
         <f>SUM(C5,E5,G5,I5,K5,M5,O5)</f>
         <v>0</v>
       </c>
@@ -4301,7 +4306,7 @@
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4316,11 +4321,11 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="28">
+      <c r="P6" s="29">
         <f t="shared" ref="P6:P16" si="0">SUM(B6,D6,F6,H6,J6,L6,N6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="30">
         <f t="shared" ref="Q6:Q16" si="1">SUM(C6,E6,G6,I6,K6,M6,O6)</f>
         <v>0</v>
       </c>
@@ -4329,7 +4334,7 @@
       <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4344,11 +4349,11 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="28">
+      <c r="P7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4357,7 +4362,7 @@
       <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -4372,11 +4377,11 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="28">
+      <c r="P8" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4385,26 +4390,26 @@
       <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="28">
+      <c r="A9" s="38"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4412,27 +4417,27 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:20" s="23" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="28">
+    <row r="10" spans="1:20" s="24" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4441,26 +4446,26 @@
       <c r="T10" s="22"/>
     </row>
     <row r="11" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="28">
+      <c r="A11" s="38"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4469,26 +4474,26 @@
       <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="28">
+      <c r="A12" s="38"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4497,26 +4502,26 @@
       <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="28">
+      <c r="A13" s="38"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4525,26 +4530,26 @@
       <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="28">
+      <c r="A14" s="38"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4553,26 +4558,26 @@
       <c r="T14" s="22"/>
     </row>
     <row r="15" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="28">
+      <c r="A15" s="38"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4581,26 +4586,26 @@
       <c r="T15" s="22"/>
     </row>
     <row r="16" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="28">
+      <c r="A16" s="38"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4608,153 +4613,153 @@
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
     </row>
-    <row r="17" spans="1:20" s="23" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:20" s="24" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="26">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="29">
         <f>SUM(B17,D17,F17,H17,J17,L17,N17)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="30">
         <f>SUM(C17,E17,G17,I17,K17,M17,O17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-    </row>
-    <row r="18" spans="1:20" s="33" customFormat="1">
-      <c r="A18" s="32" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+    </row>
+    <row r="18" spans="1:20" s="34" customFormat="1">
+      <c r="A18" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="43">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="44">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="44">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="44">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="44">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="44">
         <f>IF( $Q$17 = 0,0, ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="44">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="44">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="44">
         <f>IF( $P$17 = 0,0, ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="44">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="44">
         <f>IF( $P$17 = 0,0, ROUND(L17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="44">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="44">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18 - L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="45">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18- M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="46">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="47">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="B19" s="31"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="O20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/PhoenixCI/Excel_Template/30399.xlsx
+++ b/PhoenixCI/Excel_Template/30399.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61202017-652C-4176-A004-BA8E2A8481A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13095E6-8F19-4F8B-9173-2A7E1561F03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955" activeTab="4"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="30399" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -836,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,13 +851,13 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -869,7 +870,7 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -907,9 +908,6 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -964,10 +962,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,7 +999,7 @@
     <xf numFmtId="180" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1023,15 +1021,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,7 +1171,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAC8-4B4D-8E6A-11B41C40AF91}"/>
+              <c16:uniqueId val="{00000000-49FB-4F6A-B839-CB41AB0004EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1226,7 +1221,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FAC8-4B4D-8E6A-11B41C40AF91}"/>
+              <c16:uniqueId val="{00000001-49FB-4F6A-B839-CB41AB0004EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1239,7 +1234,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="371743224"/>
+        <c:axId val="701813104"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1294,7 +1289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FAC8-4B4D-8E6A-11B41C40AF91}"/>
+              <c16:uniqueId val="{00000002-49FB-4F6A-B839-CB41AB0004EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1312,7 +1307,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371743224"/>
+        <c:axId val="701813104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1399,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371743224"/>
+        <c:crossAx val="701813104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -1637,7 +1632,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-6167-42FD-914D-A6869060376E}"/>
+                <c16:uniqueId val="{00000000-22DA-4776-9923-FC99A6A762C1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1657,7 +1652,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6167-42FD-914D-A6869060376E}"/>
+                <c16:uniqueId val="{00000001-22DA-4776-9923-FC99A6A762C1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1677,7 +1672,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6167-42FD-914D-A6869060376E}"/>
+                <c16:uniqueId val="{00000002-22DA-4776-9923-FC99A6A762C1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1697,7 +1692,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6167-42FD-914D-A6869060376E}"/>
+                <c16:uniqueId val="{00000003-22DA-4776-9923-FC99A6A762C1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1717,7 +1712,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-6167-42FD-914D-A6869060376E}"/>
+                <c16:uniqueId val="{00000004-22DA-4776-9923-FC99A6A762C1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1737,7 +1732,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6167-42FD-914D-A6869060376E}"/>
+                <c16:uniqueId val="{00000005-22DA-4776-9923-FC99A6A762C1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1746,7 +1741,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-6167-42FD-914D-A6869060376E}"/>
+                <c16:uniqueId val="{00000006-22DA-4776-9923-FC99A6A762C1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1793,7 +1788,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-6167-42FD-914D-A6869060376E}"/>
+                  <c16:uniqueId val="{00000000-22DA-4776-9923-FC99A6A762C1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1839,7 +1834,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6167-42FD-914D-A6869060376E}"/>
+                  <c16:uniqueId val="{00000001-22DA-4776-9923-FC99A6A762C1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1885,7 +1880,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6167-42FD-914D-A6869060376E}"/>
+                  <c16:uniqueId val="{00000002-22DA-4776-9923-FC99A6A762C1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1931,7 +1926,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6167-42FD-914D-A6869060376E}"/>
+                  <c16:uniqueId val="{00000003-22DA-4776-9923-FC99A6A762C1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1977,7 +1972,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-6167-42FD-914D-A6869060376E}"/>
+                  <c16:uniqueId val="{00000004-22DA-4776-9923-FC99A6A762C1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2023,7 +2018,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-6167-42FD-914D-A6869060376E}"/>
+                  <c16:uniqueId val="{00000005-22DA-4776-9923-FC99A6A762C1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2126,7 +2121,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6167-42FD-914D-A6869060376E}"/>
+              <c16:uniqueId val="{00000007-22DA-4776-9923-FC99A6A762C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2317,7 +2312,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-31FD-41F0-8EBD-822E9F002C0A}"/>
+                <c16:uniqueId val="{00000000-58E3-419F-A37A-23E569451D3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2337,7 +2332,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-31FD-41F0-8EBD-822E9F002C0A}"/>
+                <c16:uniqueId val="{00000001-58E3-419F-A37A-23E569451D3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2357,7 +2352,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-31FD-41F0-8EBD-822E9F002C0A}"/>
+                <c16:uniqueId val="{00000002-58E3-419F-A37A-23E569451D3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2377,7 +2372,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-31FD-41F0-8EBD-822E9F002C0A}"/>
+                <c16:uniqueId val="{00000003-58E3-419F-A37A-23E569451D3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2397,7 +2392,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-31FD-41F0-8EBD-822E9F002C0A}"/>
+                <c16:uniqueId val="{00000004-58E3-419F-A37A-23E569451D3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2417,7 +2412,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-31FD-41F0-8EBD-822E9F002C0A}"/>
+                <c16:uniqueId val="{00000005-58E3-419F-A37A-23E569451D3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2426,7 +2421,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-31FD-41F0-8EBD-822E9F002C0A}"/>
+                <c16:uniqueId val="{00000006-58E3-419F-A37A-23E569451D3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2473,7 +2468,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-31FD-41F0-8EBD-822E9F002C0A}"/>
+                  <c16:uniqueId val="{00000000-58E3-419F-A37A-23E569451D3B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2519,7 +2514,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-31FD-41F0-8EBD-822E9F002C0A}"/>
+                  <c16:uniqueId val="{00000001-58E3-419F-A37A-23E569451D3B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2565,7 +2560,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-31FD-41F0-8EBD-822E9F002C0A}"/>
+                  <c16:uniqueId val="{00000002-58E3-419F-A37A-23E569451D3B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2611,7 +2606,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-31FD-41F0-8EBD-822E9F002C0A}"/>
+                  <c16:uniqueId val="{00000003-58E3-419F-A37A-23E569451D3B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2657,7 +2652,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-31FD-41F0-8EBD-822E9F002C0A}"/>
+                  <c16:uniqueId val="{00000004-58E3-419F-A37A-23E569451D3B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2703,7 +2698,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-31FD-41F0-8EBD-822E9F002C0A}"/>
+                  <c16:uniqueId val="{00000005-58E3-419F-A37A-23E569451D3B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2806,7 +2801,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-31FD-41F0-8EBD-822E9F002C0A}"/>
+              <c16:uniqueId val="{00000007-58E3-419F-A37A-23E569451D3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2933,7 +2928,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674DD182-9B1C-4432-821B-F7E820F0CF3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59B46CF-7F3F-468B-8015-1789E78E70DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2971,7 @@
         <xdr:cNvPr id="1034" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20709BA-8204-4525-85EE-A9D7627A3FAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790B3EA4-5F3D-44A1-955F-A627A130B191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3014,7 @@
         <xdr:cNvPr id="2058" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E967208-2E3B-4289-8371-E19E71AC2ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AFCB19-6813-4EA2-82DF-1BC171F0E7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,25 +3393,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="54" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="54" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="54" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="9" style="53" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="53" customWidth="1"/>
+    <col min="7" max="7" width="9" style="61" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -3431,16 +3426,16 @@
       <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="63" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3449,254 +3444,254 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="35"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C30" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59">
+      <c r="D4" s="39"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58">
         <f>F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="59">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="36"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
         <f>B5-B4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59">
+      <c r="D5" s="39"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58">
         <f t="shared" ref="G5:G35" si="1">F5-F4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="59">
         <f t="shared" ref="H5:H35" si="2">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="36"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59">
+      <c r="D6" s="39"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="36"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59">
+      <c r="D7" s="39"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59">
+      <c r="D8" s="39"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="36"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59">
+      <c r="D9" s="39"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59">
+      <c r="D10" s="39"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="36"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59">
+      <c r="D11" s="39"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59">
+      <c r="D12" s="39"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="36"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59">
+      <c r="D13" s="39"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="36"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59">
+      <c r="D14" s="39"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="36"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59">
+      <c r="D15" s="39"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="36"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59">
+      <c r="D16" s="40"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3708,14 +3703,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59">
+      <c r="D17" s="40"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3727,14 +3722,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59">
+      <c r="D18" s="40"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3746,14 +3741,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59">
+      <c r="D19" s="40"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3765,14 +3760,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59">
+      <c r="D20" s="40"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3784,14 +3779,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59">
+      <c r="D21" s="40"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3803,14 +3798,14 @@
         <f>B22-B21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59">
+      <c r="D22" s="40"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3822,14 +3817,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59">
+      <c r="D23" s="40"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3841,14 +3836,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59">
+      <c r="D24" s="40"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3860,14 +3855,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59">
+      <c r="D25" s="40"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3879,14 +3874,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59">
+      <c r="D26" s="40"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3898,14 +3893,14 @@
         <f>B27-B26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59">
+      <c r="D27" s="40"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3917,14 +3912,14 @@
         <f>B28-B27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59">
+      <c r="D28" s="40"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3936,14 +3931,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59">
+      <c r="D29" s="40"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3955,14 +3950,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59">
+      <c r="D30" s="40"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="60">
+      <c r="H30" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3974,14 +3969,14 @@
         <f>B31-B30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59">
+      <c r="D31" s="40"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3993,14 +3988,14 @@
         <f>B32-B31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59">
+      <c r="D32" s="40"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="60">
+      <c r="H32" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4012,14 +4007,14 @@
         <f>B33-B32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59">
+      <c r="D33" s="40"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="60">
+      <c r="H33" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4031,14 +4026,14 @@
         <f>B34-B33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59">
+      <c r="D34" s="40"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="60">
+      <c r="H34" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4050,14 +4045,14 @@
         <f>B35-B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="59">
+      <c r="D35" s="41"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="60">
+      <c r="H35" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4069,7 +4064,7 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="E37" s="63"/>
+      <c r="E37" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4148,86 +4143,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="74" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="74" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="77"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="79" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="79" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="79" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="78"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="73"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
@@ -4278,7 +4273,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -4293,11 +4288,11 @@
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="29">
+      <c r="P5" s="28">
         <f>SUM(B5,D5,F5,H5,J5,L5,N5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="29">
         <f>SUM(C5,E5,G5,I5,K5,M5,O5)</f>
         <v>0</v>
       </c>
@@ -4306,7 +4301,7 @@
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4321,11 +4316,11 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="29">
+      <c r="P6" s="28">
         <f t="shared" ref="P6:P16" si="0">SUM(B6,D6,F6,H6,J6,L6,N6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="29">
         <f t="shared" ref="Q6:Q16" si="1">SUM(C6,E6,G6,I6,K6,M6,O6)</f>
         <v>0</v>
       </c>
@@ -4334,7 +4329,7 @@
       <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="37"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4349,11 +4344,11 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="29">
+      <c r="P7" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4362,7 +4357,7 @@
       <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -4377,11 +4372,11 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="29">
+      <c r="P8" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4390,26 +4385,26 @@
       <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="29">
+      <c r="A9" s="37"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4417,27 +4412,27 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:20" s="24" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="29">
+    <row r="10" spans="1:20" s="23" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4446,26 +4441,26 @@
       <c r="T10" s="22"/>
     </row>
     <row r="11" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="29">
+      <c r="A11" s="37"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4474,26 +4469,26 @@
       <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="29">
+      <c r="A12" s="37"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4502,26 +4497,26 @@
       <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="29">
+      <c r="A13" s="37"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4530,26 +4525,26 @@
       <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="29">
+      <c r="A14" s="37"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4558,26 +4553,26 @@
       <c r="T14" s="22"/>
     </row>
     <row r="15" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="29">
+      <c r="A15" s="37"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4586,26 +4581,26 @@
       <c r="T15" s="22"/>
     </row>
     <row r="16" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="29">
+      <c r="A16" s="37"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4613,153 +4608,153 @@
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
     </row>
-    <row r="17" spans="1:20" s="24" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:20" s="23" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="28">
         <f>SUM(B17,D17,F17,H17,J17,L17,N17)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="29">
         <f>SUM(C17,E17,G17,I17,K17,M17,O17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-    </row>
-    <row r="18" spans="1:20" s="34" customFormat="1">
-      <c r="A18" s="33" t="s">
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+    </row>
+    <row r="18" spans="1:20" s="33" customFormat="1">
+      <c r="A18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="42">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="43">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="43">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="43">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="43">
         <f>IF( $Q$17 = 0,0, ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="43">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="43">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <f>IF( $P$17 = 0,0, ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="43">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="43">
         <f>IF( $P$17 = 0,0, ROUND(L17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="43">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="43">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18 - L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="44">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18- M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="45">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="46">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="O20" s="31"/>
+      <c r="O20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="11">
